--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2166.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2166.xlsx
@@ -354,7 +354,7 @@
         <v>3.228066287838146</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>0.934484351449503</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2166.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2166.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.590978830596278</v>
+        <v>1.144070506095886</v>
       </c>
       <c r="B1">
-        <v>3.228066287838146</v>
+        <v>2.29717493057251</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>0.934484351449503</v>
+        <v>1.470521926879883</v>
       </c>
       <c r="E1">
-        <v>0.5626612259619588</v>
+        <v>0.9556595087051392</v>
       </c>
     </row>
   </sheetData>
